--- a/本体/雷达原理知识抽取.xlsx
+++ b/本体/雷达原理知识抽取.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="354">
   <si>
     <t>雷达</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1259,10 +1259,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>detectAirspaceExtent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>targetDetection</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1412,6 +1408,14 @@
   </si>
   <si>
     <t>scanType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>波束扫描方式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>detectionAirspace</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2827,7 +2831,7 @@
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -2991,10 +2995,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="E17" t="s">
         <v>333</v>
-      </c>
-      <c r="E17" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -3047,7 +3051,7 @@
         <v>280</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
   </sheetData>
@@ -3060,8 +3064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -3174,7 +3178,7 @@
         <v>239</v>
       </c>
       <c r="C7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>16</v>
@@ -3196,7 +3200,7 @@
         <v>241</v>
       </c>
       <c r="C9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>18</v>
@@ -3207,7 +3211,7 @@
         <v>242</v>
       </c>
       <c r="C10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>19</v>
@@ -3336,7 +3340,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C22" t="s">
         <v>271</v>
@@ -3347,7 +3351,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C23" t="s">
         <v>271</v>
@@ -3358,7 +3362,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C24" t="s">
         <v>271</v>
@@ -3369,7 +3373,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C25" t="s">
         <v>271</v>
@@ -3380,7 +3384,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C26" t="s">
         <v>271</v>
@@ -3391,7 +3395,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C27" t="s">
         <v>271</v>
@@ -3402,7 +3406,7 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C28" t="s">
         <v>271</v>
@@ -3468,7 +3472,7 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>314</v>
+        <v>353</v>
       </c>
       <c r="C34" t="s">
         <v>207</v>
@@ -3479,7 +3483,7 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C35" t="s">
         <v>207</v>
@@ -3490,7 +3494,7 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C36" t="s">
         <v>207</v>
@@ -3501,7 +3505,7 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C37" t="s">
         <v>207</v>
@@ -3512,7 +3516,7 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C38" t="s">
         <v>207</v>
@@ -3523,7 +3527,7 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C39" t="s">
         <v>207</v>
@@ -3534,7 +3538,7 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C40" t="s">
         <v>207</v>
@@ -3545,7 +3549,7 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C41" t="s">
         <v>207</v>
@@ -3556,7 +3560,7 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C42" t="s">
         <v>207</v>
@@ -3567,7 +3571,7 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C43" t="s">
         <v>207</v>
@@ -3578,7 +3582,7 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C44" t="s">
         <v>207</v>
@@ -3589,7 +3593,7 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C45" t="s">
         <v>207</v>
@@ -3600,7 +3604,7 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C46" t="s">
         <v>207</v>
@@ -3611,7 +3615,7 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C47" t="s">
         <v>207</v>
@@ -3622,7 +3626,7 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C48" t="s">
         <v>207</v>
@@ -3633,18 +3637,18 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
+        <v>335</v>
+      </c>
+      <c r="C49" t="s">
+        <v>332</v>
+      </c>
+      <c r="F49" s="1" t="s">
         <v>336</v>
-      </c>
-      <c r="C49" t="s">
-        <v>333</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C50" t="s">
         <v>207</v>
@@ -3655,7 +3659,7 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C51" t="s">
         <v>207</v>
@@ -3666,7 +3670,7 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C52" t="s">
         <v>207</v>
@@ -3686,7 +3690,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:C13"/>
+      <selection activeCell="A14" sqref="A14:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -3823,7 +3827,7 @@
         <v>269</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>258</v>
+        <v>352</v>
       </c>
       <c r="D14" s="1"/>
     </row>
@@ -3977,7 +3981,7 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -4123,7 +4127,7 @@
         <v>233</v>
       </c>
       <c r="C10" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D10" t="s">
         <v>234</v>
@@ -4134,7 +4138,7 @@
         <v>263</v>
       </c>
       <c r="C11" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D11" t="s">
         <v>247</v>
@@ -4145,7 +4149,7 @@
         <v>264</v>
       </c>
       <c r="C12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D12" t="s">
         <v>250</v>
@@ -4156,7 +4160,7 @@
         <v>265</v>
       </c>
       <c r="C13" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D13" t="s">
         <v>255</v>
@@ -4199,30 +4203,30 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
+        <v>337</v>
+      </c>
+      <c r="C17" t="s">
         <v>338</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
+        <v>332</v>
+      </c>
+      <c r="F17" t="s">
         <v>339</v>
-      </c>
-      <c r="D17" t="s">
-        <v>333</v>
-      </c>
-      <c r="F17" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
+        <v>341</v>
+      </c>
+      <c r="C18" t="s">
         <v>342</v>
-      </c>
-      <c r="C18" t="s">
-        <v>343</v>
       </c>
       <c r="D18" t="s">
         <v>271</v>
       </c>
       <c r="F18" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>

--- a/本体/雷达原理知识抽取.xlsx
+++ b/本体/雷达原理知识抽取.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/TIAN/实验室/雷达抽取/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7010" tabRatio="942" firstSheet="4" activeTab="9"/>
+    <workbookView xWindow="860" yWindow="460" windowWidth="20100" windowHeight="14940" tabRatio="942" firstSheet="5" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="步骤1-A概念提取（按章节）" sheetId="1" r:id="rId1"/>
@@ -22,9 +27,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'步骤4-B datatypeProperties'!$A$1:$N$1</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -2404,7 +2412,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2787,19 +2795,19 @@
       <selection pane="bottomLeft" activeCell="C258" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.08203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="13.4140625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="13.4140625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="16" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="13.33203125" style="9" customWidth="1"/>
     <col min="5" max="5" width="29.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="29.33203125" style="9" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" style="7"/>
+    <col min="7" max="7" width="8.83203125" style="7"/>
     <col min="8" max="8" width="21.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.6640625" style="1"/>
+    <col min="9" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>385</v>
       </c>
@@ -2825,7 +2833,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>344</v>
       </c>
@@ -2833,13 +2841,13 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="9" t="s">
         <v>401</v>
       </c>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C4" s="9" t="s">
         <v>402</v>
       </c>
@@ -2848,61 +2856,61 @@
       </c>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C5" s="9" t="s">
         <v>403</v>
       </c>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C6" s="9" t="s">
         <v>404</v>
       </c>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="E8" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="E9" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="E10" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="E11" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="E12" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
@@ -2912,7 +2920,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
         <v>0</v>
@@ -2920,7 +2928,7 @@
       <c r="E15"/>
       <c r="F15" s="8"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16"/>
       <c r="C16" s="8"/>
@@ -2929,7 +2937,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17"/>
       <c r="C17" s="8"/>
@@ -2938,7 +2946,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18"/>
       <c r="C18" s="8"/>
@@ -2947,7 +2955,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19"/>
       <c r="C19" s="8"/>
@@ -2956,7 +2964,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20"/>
       <c r="C20" s="8"/>
@@ -2965,7 +2973,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21"/>
       <c r="C21" s="8"/>
@@ -2974,7 +2982,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22"/>
       <c r="C22" s="8"/>
@@ -2983,7 +2991,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23"/>
       <c r="C23" s="8"/>
@@ -2992,7 +3000,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24"/>
       <c r="C24" s="8"/>
@@ -3001,7 +3009,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25"/>
       <c r="C25" s="8"/>
@@ -3010,7 +3018,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26"/>
       <c r="C26" s="8"/>
@@ -3019,7 +3027,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>141</v>
       </c>
@@ -3027,7 +3035,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
         <v>48</v>
@@ -3036,97 +3044,97 @@
         <v>428</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="C29" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="C30" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="C31" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="C32" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="C33" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="C34" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="C35" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="C36" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="C37" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="C38" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="C39" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="C40" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="C41" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="C42" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="C43" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="1" t="s">
         <v>11</v>
@@ -3135,81 +3143,81 @@
         <v>429</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="C45" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="C46" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="C47" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="C48" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="C49" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="C50" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
       <c r="C51" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="C52" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
       <c r="C53" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
       <c r="C54" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55"/>
       <c r="B55"/>
       <c r="C55" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56"/>
       <c r="B56"/>
       <c r="C56" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>151</v>
       </c>
@@ -3220,7 +3228,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58"/>
       <c r="B58" t="s">
         <v>156</v>
@@ -3231,7 +3239,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59"/>
       <c r="B59"/>
       <c r="C59" s="8"/>
@@ -3240,7 +3248,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60"/>
       <c r="B60"/>
       <c r="C60" s="8"/>
@@ -3249,7 +3257,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61"/>
       <c r="B61"/>
       <c r="C61" s="8"/>
@@ -3258,7 +3266,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62"/>
       <c r="B62" t="s">
         <v>155</v>
@@ -3269,7 +3277,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63"/>
       <c r="B63" t="s">
         <v>157</v>
@@ -3280,7 +3288,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64"/>
       <c r="B64"/>
       <c r="C64" s="8"/>
@@ -3289,7 +3297,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65"/>
       <c r="B65"/>
       <c r="C65" s="8"/>
@@ -3298,7 +3306,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66"/>
       <c r="B66"/>
       <c r="C66" s="8"/>
@@ -3307,7 +3315,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67"/>
       <c r="B67"/>
       <c r="C67" s="8"/>
@@ -3316,7 +3324,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68"/>
       <c r="B68"/>
       <c r="C68" s="8"/>
@@ -3325,7 +3333,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69"/>
       <c r="B69"/>
       <c r="C69" s="8"/>
@@ -3334,7 +3342,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70"/>
       <c r="B70"/>
       <c r="C70" s="8"/>
@@ -3343,7 +3351,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71"/>
       <c r="B71"/>
       <c r="C71" s="8"/>
@@ -3352,7 +3360,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72"/>
       <c r="B72"/>
       <c r="C72" s="8"/>
@@ -3361,7 +3369,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73"/>
       <c r="B73"/>
       <c r="C73" s="8"/>
@@ -3370,7 +3378,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="74" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="8"/>
       <c r="B74" s="8" t="s">
         <v>434</v>
@@ -3381,7 +3389,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="75" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="8"/>
       <c r="B75" s="8" t="s">
         <v>435</v>
@@ -3390,7 +3398,7 @@
       <c r="D75" s="8"/>
       <c r="G75" s="7"/>
     </row>
-    <row r="76" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="D76" s="8"/>
@@ -3401,7 +3409,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="77" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="D77" s="8"/>
@@ -3412,7 +3420,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="78" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="D78" s="8"/>
@@ -3423,7 +3431,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>173</v>
       </c>
@@ -3431,7 +3439,7 @@
       <c r="C79" s="8"/>
       <c r="D79" s="8"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80"/>
       <c r="B80" t="s">
         <v>93</v>
@@ -3442,7 +3450,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81"/>
       <c r="B81" t="s">
         <v>185</v>
@@ -3453,7 +3461,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82"/>
       <c r="B82" t="s">
         <v>143</v>
@@ -3464,7 +3472,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83"/>
       <c r="B83" t="s">
         <v>174</v>
@@ -3475,7 +3483,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84"/>
       <c r="B84"/>
       <c r="C84" s="1" t="s">
@@ -3483,7 +3491,7 @@
       </c>
       <c r="D84" s="8"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85"/>
       <c r="B85"/>
       <c r="C85" s="1" t="s">
@@ -3491,7 +3499,7 @@
       </c>
       <c r="D85" s="8"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86"/>
       <c r="B86"/>
       <c r="C86" s="1" t="s">
@@ -3499,7 +3507,7 @@
       </c>
       <c r="D86" s="8"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87"/>
       <c r="B87"/>
       <c r="C87" s="1" t="s">
@@ -3507,7 +3515,7 @@
       </c>
       <c r="D87" s="8"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88"/>
       <c r="B88"/>
       <c r="C88" s="1" t="s">
@@ -3515,7 +3523,7 @@
       </c>
       <c r="D88" s="8"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89"/>
       <c r="B89"/>
       <c r="C89" s="1" t="s">
@@ -3523,7 +3531,7 @@
       </c>
       <c r="D89" s="8"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90"/>
       <c r="B90"/>
       <c r="C90" s="1" t="s">
@@ -3531,7 +3539,7 @@
       </c>
       <c r="D90" s="8"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91"/>
       <c r="B91"/>
       <c r="C91" s="1" t="s">
@@ -3539,7 +3547,7 @@
       </c>
       <c r="D91" s="8"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92"/>
       <c r="B92"/>
       <c r="C92" s="1" t="s">
@@ -3547,7 +3555,7 @@
       </c>
       <c r="D92" s="8"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93"/>
       <c r="B93" t="s">
         <v>184</v>
@@ -3558,7 +3566,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="8"/>
       <c r="B94" s="8" t="s">
         <v>446</v>
@@ -3570,7 +3578,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>186</v>
       </c>
@@ -3578,7 +3586,7 @@
       <c r="C95" s="8"/>
       <c r="D95" s="8"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96"/>
       <c r="B96" t="s">
         <v>143</v>
@@ -3586,7 +3594,7 @@
       <c r="C96" s="8"/>
       <c r="D96" s="8"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97"/>
       <c r="B97"/>
       <c r="C97" s="8"/>
@@ -3598,7 +3606,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98"/>
       <c r="B98"/>
       <c r="C98" s="8"/>
@@ -3607,7 +3615,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99"/>
       <c r="B99"/>
       <c r="C99" s="8"/>
@@ -3616,7 +3624,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="100" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100"/>
       <c r="B100" t="s">
         <v>326</v>
@@ -3626,7 +3634,7 @@
       <c r="E100" s="1"/>
       <c r="G100" s="7"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>187</v>
       </c>
@@ -3637,7 +3645,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
       <c r="B102" t="s">
         <v>185</v>
@@ -3648,7 +3656,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
       <c r="B103" t="s">
         <v>143</v>
@@ -3659,7 +3667,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="1"/>
       <c r="B104" t="s">
         <v>188</v>
@@ -3670,7 +3678,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="1"/>
       <c r="B105" t="s">
         <v>189</v>
@@ -3681,7 +3689,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
       <c r="B106" t="s">
         <v>326</v>
@@ -3692,7 +3700,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>190</v>
       </c>
@@ -3703,7 +3711,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="1"/>
       <c r="B108" t="s">
         <v>193</v>
@@ -3711,7 +3719,7 @@
       <c r="C108" s="8"/>
       <c r="D108" s="8"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="1"/>
       <c r="B109" t="s">
         <v>185</v>
@@ -3719,7 +3727,7 @@
       <c r="C109" s="8"/>
       <c r="D109" s="8"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="1"/>
       <c r="B110" t="s">
         <v>326</v>
@@ -3727,7 +3735,7 @@
       <c r="C110" s="8"/>
       <c r="D110" s="8"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>196</v>
       </c>
@@ -3738,7 +3746,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="1"/>
       <c r="B112" t="s">
         <v>189</v>
@@ -3749,7 +3757,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="1"/>
       <c r="B113" t="s">
         <v>193</v>
@@ -3760,7 +3768,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="1"/>
       <c r="B114" t="s">
         <v>458</v>
@@ -3771,7 +3779,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="1"/>
       <c r="B115" t="s">
         <v>326</v>
@@ -3782,7 +3790,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>7</v>
       </c>
@@ -3795,7 +3803,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117"/>
       <c r="B117" t="s">
         <v>143</v>
@@ -3805,7 +3813,7 @@
       <c r="E117"/>
       <c r="F117" s="8"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118"/>
       <c r="B118"/>
       <c r="C118" s="8"/>
@@ -3814,7 +3822,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119"/>
       <c r="B119"/>
       <c r="C119" s="8"/>
@@ -3823,7 +3831,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120"/>
       <c r="B120"/>
       <c r="C120" s="8"/>
@@ -3832,7 +3840,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>90</v>
       </c>
@@ -3840,7 +3848,7 @@
       <c r="C121" s="8"/>
       <c r="D121" s="8"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="1"/>
       <c r="B122" t="s">
         <v>174</v>
@@ -3851,7 +3859,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="1"/>
       <c r="B123"/>
       <c r="C123" s="1" t="s">
@@ -3859,7 +3867,7 @@
       </c>
       <c r="D123" s="8"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="1"/>
       <c r="B124"/>
       <c r="C124" s="1" t="s">
@@ -3867,7 +3875,7 @@
       </c>
       <c r="D124" s="8"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="1"/>
       <c r="B125"/>
       <c r="C125" s="1" t="s">
@@ -3875,7 +3883,7 @@
       </c>
       <c r="D125" s="8"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" s="1"/>
       <c r="B126"/>
       <c r="C126" s="1" t="s">
@@ -3883,7 +3891,7 @@
       </c>
       <c r="D126" s="8"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="1"/>
       <c r="B127"/>
       <c r="C127" s="1" t="s">
@@ -3891,7 +3899,7 @@
       </c>
       <c r="D127" s="8"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="1"/>
       <c r="B128"/>
       <c r="C128" s="1" t="s">
@@ -3899,7 +3907,7 @@
       </c>
       <c r="D128" s="8"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="1"/>
       <c r="B129"/>
       <c r="C129" s="1" t="s">
@@ -3907,7 +3915,7 @@
       </c>
       <c r="D129" s="8"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="1"/>
       <c r="B130"/>
       <c r="C130" s="1" t="s">
@@ -3915,7 +3923,7 @@
       </c>
       <c r="D130" s="8"/>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="1"/>
       <c r="B131"/>
       <c r="C131" s="1" t="s">
@@ -3923,7 +3931,7 @@
       </c>
       <c r="D131" s="8"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" s="1"/>
       <c r="B132"/>
       <c r="C132" s="1" t="s">
@@ -3931,7 +3939,7 @@
       </c>
       <c r="D132" s="8"/>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" s="1"/>
       <c r="B133" t="s">
         <v>206</v>
@@ -3939,7 +3947,7 @@
       <c r="C133" s="8"/>
       <c r="D133" s="8"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" s="1"/>
       <c r="B134"/>
       <c r="C134" s="1" t="s">
@@ -3950,7 +3958,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" s="1"/>
       <c r="B135"/>
       <c r="C135" s="1" t="s">
@@ -3961,7 +3969,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="1"/>
       <c r="B136"/>
       <c r="C136" s="1" t="s">
@@ -3972,7 +3980,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" s="9"/>
       <c r="B137" s="8" t="s">
         <v>461</v>
@@ -3984,7 +3992,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>210</v>
       </c>
@@ -3995,7 +4003,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" s="1"/>
       <c r="B139" t="s">
         <v>143</v>
@@ -4006,7 +4014,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" s="1"/>
       <c r="B140"/>
       <c r="C140" s="8"/>
@@ -4018,7 +4026,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" s="1"/>
       <c r="B141"/>
       <c r="C141" s="8"/>
@@ -4030,7 +4038,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" s="1"/>
       <c r="B142"/>
       <c r="C142" s="8"/>
@@ -4042,7 +4050,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="143" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1"/>
       <c r="B143"/>
       <c r="C143" s="8"/>
@@ -4054,7 +4062,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" s="1"/>
       <c r="B144"/>
       <c r="C144" s="8"/>
@@ -4066,7 +4074,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" s="1"/>
       <c r="B145"/>
       <c r="C145" s="8"/>
@@ -4078,7 +4086,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" s="1"/>
       <c r="B146"/>
       <c r="C146" s="8"/>
@@ -4090,7 +4098,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" s="1"/>
       <c r="B147"/>
       <c r="C147" s="8"/>
@@ -4102,7 +4110,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" s="1"/>
       <c r="B148" t="s">
         <v>174</v>
@@ -4113,7 +4121,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" s="1"/>
       <c r="B149"/>
       <c r="C149" s="1" t="s">
@@ -4124,7 +4132,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" s="1"/>
       <c r="B150"/>
       <c r="C150" s="1" t="s">
@@ -4135,7 +4143,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" s="1"/>
       <c r="B151"/>
       <c r="C151" s="1" t="s">
@@ -4146,7 +4154,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" s="1"/>
       <c r="B152"/>
       <c r="C152" s="1" t="s">
@@ -4157,7 +4165,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" s="1"/>
       <c r="B153"/>
       <c r="C153" s="1" t="s">
@@ -4168,7 +4176,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" s="1"/>
       <c r="B154"/>
       <c r="C154" s="1" t="s">
@@ -4179,7 +4187,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" s="1"/>
       <c r="B155"/>
       <c r="C155" s="1" t="s">
@@ -4190,7 +4198,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>225</v>
       </c>
@@ -4198,7 +4206,7 @@
       <c r="C156" s="8"/>
       <c r="D156" s="8"/>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" s="1"/>
       <c r="B157" t="s">
         <v>226</v>
@@ -4209,7 +4217,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" s="9"/>
       <c r="B158" s="8"/>
       <c r="C158" s="8" t="s">
@@ -4221,7 +4229,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" s="9"/>
       <c r="B159" s="8"/>
       <c r="C159" s="8" t="s">
@@ -4233,7 +4241,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" s="9"/>
       <c r="B160" s="8"/>
       <c r="C160" s="8" t="s">
@@ -4245,7 +4253,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" s="9"/>
       <c r="B161" s="8"/>
       <c r="C161" s="8" t="s">
@@ -4257,7 +4265,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" s="1"/>
       <c r="B162" t="s">
         <v>227</v>
@@ -4268,7 +4276,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" s="1"/>
       <c r="B163"/>
       <c r="C163" s="1" t="s">
@@ -4279,7 +4287,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="164" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1"/>
       <c r="B164"/>
       <c r="C164" s="1" t="s">
@@ -4291,7 +4299,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="165" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1"/>
       <c r="B165" t="s">
         <v>230</v>
@@ -4303,7 +4311,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="166" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1"/>
       <c r="B166" t="s">
         <v>231</v>
@@ -4315,7 +4323,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="167" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1"/>
       <c r="B167"/>
       <c r="C167" s="1" t="s">
@@ -4327,7 +4335,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" s="1"/>
       <c r="B168"/>
       <c r="C168" s="1" t="s">
@@ -4338,7 +4346,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" s="1"/>
       <c r="B169" t="s">
         <v>234</v>
@@ -4349,7 +4357,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" s="1"/>
       <c r="B170"/>
       <c r="C170" s="1" t="s">
@@ -4360,7 +4368,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" s="1"/>
       <c r="B171"/>
       <c r="C171" s="1" t="s">
@@ -4371,7 +4379,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" s="1"/>
       <c r="B172"/>
       <c r="C172" s="1" t="s">
@@ -4382,7 +4390,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" s="1"/>
       <c r="B173" t="s">
         <v>238</v>
@@ -4393,7 +4401,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" s="1"/>
       <c r="B174" t="s">
         <v>239</v>
@@ -4404,7 +4412,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>240</v>
       </c>
@@ -4415,7 +4423,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" s="1"/>
       <c r="B176" t="s">
         <v>241</v>
@@ -4426,7 +4434,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" s="1"/>
       <c r="B177" t="s">
         <v>242</v>
@@ -4437,7 +4445,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" s="1"/>
       <c r="B178" t="s">
         <v>243</v>
@@ -4448,7 +4456,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" s="1"/>
       <c r="B179" t="s">
         <v>244</v>
@@ -4459,7 +4467,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>246</v>
       </c>
@@ -4470,7 +4478,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" s="1"/>
       <c r="B181" t="s">
         <v>247</v>
@@ -4481,7 +4489,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" s="1"/>
       <c r="B182" t="s">
         <v>249</v>
@@ -4490,7 +4498,7 @@
       <c r="D182" s="8"/>
       <c r="G182" s="1"/>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" s="1"/>
       <c r="B183"/>
       <c r="C183" s="8"/>
@@ -4502,7 +4510,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" s="1"/>
       <c r="B184"/>
       <c r="C184" s="8"/>
@@ -4514,7 +4522,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" s="1"/>
       <c r="B185"/>
       <c r="C185" s="8"/>
@@ -4526,7 +4534,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>245</v>
       </c>
@@ -4537,7 +4545,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" s="9"/>
       <c r="B187" s="8" t="s">
         <v>500</v>
@@ -4549,7 +4557,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" s="1"/>
       <c r="B188" t="s">
         <v>260</v>
@@ -4560,7 +4568,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" s="1"/>
       <c r="B189"/>
       <c r="C189" s="8"/>
@@ -4572,7 +4580,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190" s="1"/>
       <c r="B190"/>
       <c r="C190" s="8"/>
@@ -4584,7 +4592,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191" s="1"/>
       <c r="B191"/>
       <c r="C191" s="8"/>
@@ -4596,7 +4604,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192" s="1"/>
       <c r="B192"/>
       <c r="C192" s="8"/>
@@ -4608,7 +4616,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" s="1"/>
       <c r="B193"/>
       <c r="C193" s="8"/>
@@ -4620,7 +4628,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" s="1"/>
       <c r="B194" t="s">
         <v>266</v>
@@ -4631,7 +4639,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195" s="1"/>
       <c r="B195"/>
       <c r="C195" s="8"/>
@@ -4643,7 +4651,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196" s="1"/>
       <c r="B196"/>
       <c r="C196" s="8"/>
@@ -4655,7 +4663,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="197" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A197" s="1"/>
       <c r="B197"/>
       <c r="C197" s="8"/>
@@ -4667,7 +4675,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198" s="1"/>
       <c r="B198"/>
       <c r="C198" s="8"/>
@@ -4679,7 +4687,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199" s="1"/>
       <c r="B199" s="1" t="s">
         <v>271</v>
@@ -4688,7 +4696,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200" s="1"/>
       <c r="B200" s="1" t="s">
         <v>279</v>
@@ -4697,7 +4705,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>271</v>
       </c>
@@ -4708,7 +4716,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" s="1"/>
       <c r="B202" t="s">
         <v>143</v>
@@ -4719,7 +4727,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203" s="1"/>
       <c r="B203" t="s">
         <v>272</v>
@@ -4730,7 +4738,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="204" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A204" s="1"/>
       <c r="B204"/>
       <c r="C204" s="8"/>
@@ -4740,7 +4748,7 @@
       </c>
       <c r="G204" s="7"/>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205" s="1"/>
       <c r="B205"/>
       <c r="C205" s="8"/>
@@ -4749,7 +4757,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206" s="1"/>
       <c r="B206"/>
       <c r="C206" s="8"/>
@@ -4758,7 +4766,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207" s="1"/>
       <c r="B207"/>
       <c r="C207" s="8"/>
@@ -4767,7 +4775,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208" s="1"/>
       <c r="B208"/>
       <c r="C208" s="8"/>
@@ -4776,7 +4784,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209"/>
       <c r="B209" t="s">
         <v>273</v>
@@ -4789,7 +4797,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>279</v>
       </c>
@@ -4800,7 +4808,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A211" s="1"/>
       <c r="B211" t="s">
         <v>280</v>
@@ -4811,7 +4819,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A212" s="1"/>
       <c r="B212" s="1" t="s">
         <v>326</v>
@@ -4822,7 +4830,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>281</v>
       </c>
@@ -4833,7 +4841,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A214" s="1"/>
       <c r="B214" t="s">
         <v>143</v>
@@ -4844,7 +4852,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A215" s="1"/>
       <c r="B215"/>
       <c r="C215" s="8"/>
@@ -4853,7 +4861,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A216" s="1"/>
       <c r="B216"/>
       <c r="C216" s="8"/>
@@ -4862,7 +4870,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A217" s="1"/>
       <c r="B217"/>
       <c r="C217" s="8"/>
@@ -4871,7 +4879,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A218" s="1"/>
       <c r="B218" t="s">
         <v>326</v>
@@ -4882,7 +4890,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A219" s="1"/>
       <c r="B219" t="s">
         <v>272</v>
@@ -4893,7 +4901,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
         <v>282</v>
       </c>
@@ -4904,7 +4912,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="221" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B221" s="8" t="s">
         <v>535</v>
       </c>
@@ -4912,21 +4920,21 @@
       <c r="D221" s="8"/>
       <c r="G221" s="7"/>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A222" s="1"/>
       <c r="D222" s="1"/>
       <c r="E222" s="1" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A223" s="1"/>
       <c r="D223" s="1"/>
       <c r="E223" s="1" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
         <v>286</v>
       </c>
@@ -4937,7 +4945,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" s="1"/>
       <c r="B225" t="s">
         <v>143</v>
@@ -4945,7 +4953,7 @@
       <c r="C225" s="8"/>
       <c r="D225" s="8"/>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" s="1"/>
       <c r="B226"/>
       <c r="C226" s="8"/>
@@ -4954,7 +4962,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" s="1"/>
       <c r="B227"/>
       <c r="C227" s="8"/>
@@ -4963,7 +4971,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" s="1"/>
       <c r="B228"/>
       <c r="C228" s="8"/>
@@ -4972,7 +4980,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" s="1"/>
       <c r="B229"/>
       <c r="C229" s="8"/>
@@ -4981,7 +4989,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" s="1"/>
       <c r="B230" t="s">
         <v>287</v>
@@ -4989,7 +4997,7 @@
       <c r="C230" s="8"/>
       <c r="D230" s="8"/>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" s="1"/>
       <c r="B231"/>
       <c r="C231" s="1" t="s">
@@ -4997,7 +5005,7 @@
       </c>
       <c r="D231" s="8"/>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" s="1"/>
       <c r="B232"/>
       <c r="C232" s="1" t="s">
@@ -5005,7 +5013,7 @@
       </c>
       <c r="D232" s="8"/>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" s="1"/>
       <c r="B233"/>
       <c r="C233" s="1" t="s">
@@ -5013,7 +5021,7 @@
       </c>
       <c r="D233" s="8"/>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" s="1"/>
       <c r="B234"/>
       <c r="C234" s="1" t="s">
@@ -5021,7 +5029,7 @@
       </c>
       <c r="D234" s="8"/>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" s="1"/>
       <c r="B235"/>
       <c r="C235" s="1" t="s">
@@ -5029,7 +5037,7 @@
       </c>
       <c r="D235" s="8"/>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" s="1"/>
       <c r="B236"/>
       <c r="C236" s="1" t="s">
@@ -5037,7 +5045,7 @@
       </c>
       <c r="D236" s="8"/>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" s="1"/>
       <c r="B237"/>
       <c r="C237" s="1" t="s">
@@ -5045,7 +5053,7 @@
       </c>
       <c r="D237" s="8"/>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" s="1"/>
       <c r="B238"/>
       <c r="C238" s="1" t="s">
@@ -5053,7 +5061,7 @@
       </c>
       <c r="D238" s="8"/>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" s="1"/>
       <c r="B239"/>
       <c r="C239" s="1" t="s">
@@ -5061,7 +5069,7 @@
       </c>
       <c r="D239" s="8"/>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" s="1"/>
       <c r="B240"/>
       <c r="C240" s="1" t="s">
@@ -5069,7 +5077,7 @@
       </c>
       <c r="D240" s="8"/>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A241" s="1"/>
       <c r="B241"/>
       <c r="C241" s="1" t="s">
@@ -5077,7 +5085,7 @@
       </c>
       <c r="D241" s="8"/>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A242" s="1"/>
       <c r="B242"/>
       <c r="C242" s="1" t="s">
@@ -5085,7 +5093,7 @@
       </c>
       <c r="D242" s="8"/>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A243" s="1"/>
       <c r="B243"/>
       <c r="C243" s="1" t="s">
@@ -5093,7 +5101,7 @@
       </c>
       <c r="D243" s="8"/>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
         <v>284</v>
       </c>
@@ -5104,7 +5112,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A245" s="1"/>
       <c r="B245" t="s">
         <v>302</v>
@@ -5112,7 +5120,7 @@
       <c r="C245" s="8"/>
       <c r="D245" s="8"/>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A246" s="1"/>
       <c r="B246" t="s">
         <v>303</v>
@@ -5120,7 +5128,7 @@
       <c r="C246" s="8"/>
       <c r="D246" s="8"/>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A247" s="1"/>
       <c r="B247" t="s">
         <v>304</v>
@@ -5128,7 +5136,7 @@
       <c r="C247" s="8"/>
       <c r="D247" s="8"/>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
         <v>302</v>
       </c>
@@ -5139,7 +5147,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A249" s="1"/>
       <c r="B249" t="s">
         <v>143</v>
@@ -5147,7 +5155,7 @@
       <c r="C249" s="8"/>
       <c r="D249" s="8"/>
     </row>
-    <row r="250" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B250" s="8" t="s">
         <v>537</v>
       </c>
@@ -5155,7 +5163,7 @@
       <c r="D250" s="8"/>
       <c r="G250" s="7"/>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
         <v>309</v>
       </c>
@@ -5166,7 +5174,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A252" s="1"/>
       <c r="B252" t="s">
         <v>143</v>
@@ -5174,7 +5182,7 @@
       <c r="C252" s="8"/>
       <c r="D252" s="8"/>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A253" s="1"/>
       <c r="B253" t="s">
         <v>272</v>
@@ -5182,7 +5190,7 @@
       <c r="C253" s="8"/>
       <c r="D253" s="8"/>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A254" s="1"/>
       <c r="B254"/>
       <c r="C254" s="8"/>
@@ -5191,7 +5199,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A255" s="1"/>
       <c r="B255"/>
       <c r="C255" s="8"/>
@@ -5211,22 +5219,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.9140625" customWidth="1"/>
+    <col min="1" max="1" width="26.83203125" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" customWidth="1"/>
     <col min="3" max="3" width="16.6640625" customWidth="1"/>
     <col min="4" max="4" width="17.33203125" customWidth="1"/>
-    <col min="5" max="5" width="21.25" customWidth="1"/>
+    <col min="5" max="5" width="21.1640625" customWidth="1"/>
     <col min="6" max="6" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>69</v>
       </c>
@@ -5267,7 +5275,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>354</v>
       </c>
@@ -5278,7 +5286,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>356</v>
       </c>
@@ -5289,7 +5297,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="9" t="s">
         <v>551</v>
       </c>
@@ -5297,7 +5305,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="9" t="s">
         <v>552</v>
       </c>
@@ -5305,7 +5313,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="9" t="s">
         <v>553</v>
       </c>
@@ -5313,7 +5321,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>558</v>
       </c>
@@ -5324,7 +5332,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>560</v>
       </c>
@@ -5335,7 +5343,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>566</v>
       </c>
@@ -5346,7 +5354,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>568</v>
       </c>
@@ -5357,7 +5365,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>368</v>
       </c>
@@ -5368,7 +5376,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>570</v>
       </c>
@@ -5379,7 +5387,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>381</v>
       </c>
@@ -5390,7 +5398,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>372</v>
       </c>
@@ -5401,7 +5409,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>376</v>
       </c>
@@ -5412,7 +5420,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>379</v>
       </c>
@@ -5423,7 +5431,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>591</v>
       </c>
@@ -5431,7 +5439,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C18" s="9" t="s">
         <v>592</v>
       </c>
@@ -5439,7 +5447,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B19" s="8" t="s">
         <v>593</v>
       </c>
@@ -5450,7 +5458,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C20" s="9" t="s">
         <v>592</v>
       </c>
@@ -5458,7 +5466,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B21" s="8" t="s">
         <v>594</v>
       </c>
@@ -5469,7 +5477,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B22" s="8" t="s">
         <v>595</v>
       </c>
@@ -5480,7 +5488,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B23" s="8" t="s">
         <v>596</v>
       </c>
@@ -5491,7 +5499,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B24" s="8" t="s">
         <v>597</v>
       </c>
@@ -5502,7 +5510,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B25" s="8" t="s">
         <v>598</v>
       </c>
@@ -5513,7 +5521,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B26" s="8" t="s">
         <v>599</v>
       </c>
@@ -5524,7 +5532,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B27" s="8" t="s">
         <v>600</v>
       </c>
@@ -5535,7 +5543,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B28" s="8" t="s">
         <v>601</v>
       </c>
@@ -5546,7 +5554,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B29" s="8" t="s">
         <v>602</v>
       </c>
@@ -5557,7 +5565,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>603</v>
       </c>
@@ -5568,7 +5576,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="8" t="s">
         <v>604</v>
@@ -5580,7 +5588,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" t="s">
         <v>605</v>
@@ -5592,7 +5600,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" s="8" t="s">
         <v>606</v>
       </c>
@@ -5603,7 +5611,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C34" s="9" t="s">
         <v>592</v>
       </c>
@@ -5611,7 +5619,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C35" s="9" t="s">
         <v>592</v>
       </c>
@@ -5619,7 +5627,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C36" s="9" t="s">
         <v>592</v>
       </c>
@@ -5627,7 +5635,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C37" s="9" t="s">
         <v>592</v>
       </c>
@@ -5635,7 +5643,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C38" s="9" t="s">
         <v>592</v>
       </c>
@@ -5643,7 +5651,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C39" s="9" t="s">
         <v>592</v>
       </c>
@@ -5651,7 +5659,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C40" s="9" t="s">
         <v>592</v>
       </c>
@@ -5659,7 +5667,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C41" s="9" t="s">
         <v>592</v>
       </c>
@@ -5667,7 +5675,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C42" s="9" t="s">
         <v>592</v>
       </c>
@@ -5675,7 +5683,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C43" s="9" t="s">
         <v>592</v>
       </c>
@@ -5683,7 +5691,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C44" s="9" t="s">
         <v>592</v>
       </c>
@@ -5691,7 +5699,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C45" s="9" t="s">
         <v>592</v>
       </c>
@@ -5699,7 +5707,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C46" s="9" t="s">
         <v>592</v>
       </c>
@@ -5707,7 +5715,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C47" s="9" t="s">
         <v>592</v>
       </c>
@@ -5715,7 +5723,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C48" s="9" t="s">
         <v>592</v>
       </c>
@@ -5723,7 +5731,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C49" s="9" t="s">
         <v>592</v>
       </c>
@@ -5731,7 +5739,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C50" s="9" t="s">
         <v>592</v>
       </c>
@@ -5739,7 +5747,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="51" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C51" s="9" t="s">
         <v>592</v>
       </c>
@@ -5747,7 +5755,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="52" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C52" s="9" t="s">
         <v>592</v>
       </c>
@@ -5755,7 +5763,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="53" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C53" s="9" t="s">
         <v>592</v>
       </c>
@@ -5763,7 +5771,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="54" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C54" s="9" t="s">
         <v>592</v>
       </c>
@@ -5771,7 +5779,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="55" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C55" s="9" t="s">
         <v>592</v>
       </c>
@@ -5779,7 +5787,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="56" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C56" s="9" t="s">
         <v>592</v>
       </c>
@@ -5787,7 +5795,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="57" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C57" s="9" t="s">
         <v>592</v>
       </c>
@@ -5795,7 +5803,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="58" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C58" s="9" t="s">
         <v>592</v>
       </c>
@@ -5803,7 +5811,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="59" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C59" s="9" t="s">
         <v>592</v>
       </c>
@@ -5811,7 +5819,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="60" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C60" s="9" t="s">
         <v>592</v>
       </c>
@@ -5819,7 +5827,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="61" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C61" s="9" t="s">
         <v>592</v>
       </c>
@@ -5827,7 +5835,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="62" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C62" s="9" t="s">
         <v>592</v>
       </c>
@@ -5835,7 +5843,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="63" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C63" s="9" t="s">
         <v>592</v>
       </c>
@@ -5843,7 +5851,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="64" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C64" s="9" t="s">
         <v>592</v>
       </c>
@@ -5851,7 +5859,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="65" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C65" s="9" t="s">
         <v>592</v>
       </c>
@@ -5859,7 +5867,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="66" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C66" s="9" t="s">
         <v>592</v>
       </c>
@@ -5867,7 +5875,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="67" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C67" s="9" t="s">
         <v>592</v>
       </c>
@@ -5875,7 +5883,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="68" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C68" s="9" t="s">
         <v>592</v>
       </c>
@@ -5883,7 +5891,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="69" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C69" s="9" t="s">
         <v>592</v>
       </c>
@@ -5891,7 +5899,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="70" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C70" s="9" t="s">
         <v>592</v>
       </c>
@@ -5899,7 +5907,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="71" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C71" s="9" t="s">
         <v>592</v>
       </c>
@@ -5907,7 +5915,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="72" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C72" s="9" t="s">
         <v>592</v>
       </c>
@@ -5915,7 +5923,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="73" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C73" s="9" t="s">
         <v>592</v>
       </c>
@@ -5923,7 +5931,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="74" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C74" s="9" t="s">
         <v>592</v>
       </c>
@@ -5931,7 +5939,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="75" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C75" s="9" t="s">
         <v>592</v>
       </c>
@@ -5939,7 +5947,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="76" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C76" s="9" t="s">
         <v>592</v>
       </c>
@@ -5947,7 +5955,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="77" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C77" s="9" t="s">
         <v>592</v>
       </c>
@@ -5955,7 +5963,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="78" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C78" s="9" t="s">
         <v>592</v>
       </c>
@@ -5963,7 +5971,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="79" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C79" s="9" t="s">
         <v>592</v>
       </c>
@@ -5971,7 +5979,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="80" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C80" s="9" t="s">
         <v>592</v>
       </c>
@@ -5979,7 +5987,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C81" s="9" t="s">
         <v>592</v>
       </c>
@@ -5987,7 +5995,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="82" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C82" s="9" t="s">
         <v>592</v>
       </c>
@@ -5995,7 +6003,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="83" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C83" s="9" t="s">
         <v>592</v>
       </c>
@@ -6003,7 +6011,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="84" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C84" s="9" t="s">
         <v>592</v>
       </c>
@@ -6011,7 +6019,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="85" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C85" s="9" t="s">
         <v>592</v>
       </c>
@@ -6019,7 +6027,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="86" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C86" s="9" t="s">
         <v>592</v>
       </c>
@@ -6027,7 +6035,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="87" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C87" s="9" t="s">
         <v>592</v>
       </c>
@@ -6050,14 +6058,14 @@
       <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.83203125" customWidth="1"/>
-    <col min="2" max="2" width="27.4140625" customWidth="1"/>
-    <col min="3" max="3" width="26.25" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" customWidth="1"/>
+    <col min="3" max="3" width="26.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>82</v>
       </c>
@@ -6077,7 +6085,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>94</v>
       </c>
@@ -6085,7 +6093,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>98</v>
       </c>
@@ -6096,7 +6104,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>96</v>
       </c>
@@ -6107,7 +6115,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>99</v>
       </c>
@@ -6115,7 +6123,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>101</v>
       </c>
@@ -6123,7 +6131,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>92</v>
       </c>
@@ -6131,7 +6139,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>102</v>
       </c>
@@ -6139,7 +6147,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>103</v>
       </c>
@@ -6147,7 +6155,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>104</v>
       </c>
@@ -6155,7 +6163,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>107</v>
       </c>
@@ -6163,7 +6171,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>109</v>
       </c>
@@ -6171,7 +6179,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>108</v>
       </c>
@@ -6179,7 +6187,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>116</v>
       </c>
@@ -6188,7 +6196,7 @@
       </c>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>112</v>
       </c>
@@ -6196,7 +6204,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>111</v>
       </c>
@@ -6204,7 +6212,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>117</v>
       </c>
@@ -6212,7 +6220,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>33</v>
       </c>
@@ -6223,7 +6231,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>34</v>
       </c>
@@ -6234,7 +6242,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>35</v>
       </c>
@@ -6245,12 +6253,12 @@
         <v>121</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>38</v>
       </c>
@@ -6261,7 +6269,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>39</v>
       </c>
@@ -6272,7 +6280,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
         <v>41</v>
       </c>
@@ -6283,7 +6291,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
         <v>42</v>
       </c>
@@ -6294,7 +6302,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>43</v>
       </c>
@@ -6305,7 +6313,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
         <v>44</v>
       </c>
@@ -6316,7 +6324,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>45</v>
       </c>
@@ -6327,7 +6335,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>578</v>
       </c>
@@ -6339,7 +6347,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B30" s="9" t="s">
         <v>579</v>
       </c>
@@ -6350,7 +6358,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B31" s="9" t="s">
         <v>580</v>
       </c>
@@ -6361,7 +6369,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>581</v>
       </c>
@@ -6373,7 +6381,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B33" s="9" t="s">
         <v>582</v>
       </c>
@@ -6384,7 +6392,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B34" s="9" t="s">
         <v>583</v>
       </c>
@@ -6395,7 +6403,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>584</v>
       </c>
@@ -6404,7 +6412,7 @@
       </c>
       <c r="D35" s="9"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B36" s="9" t="s">
         <v>585</v>
       </c>
@@ -6412,7 +6420,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B37" s="9" t="s">
         <v>586</v>
       </c>
@@ -6420,7 +6428,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>587</v>
       </c>
@@ -6429,12 +6437,12 @@
       </c>
       <c r="D38" s="8"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C39" s="8" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C40" s="8" t="s">
         <v>308</v>
       </c>
@@ -6454,14 +6462,14 @@
       <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="3" width="16.58203125" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
     <col min="5" max="5" width="18.5" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>388</v>
       </c>
@@ -6478,7 +6486,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>387</v>
       </c>
@@ -6488,119 +6496,119 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>173</v>
       </c>
@@ -6608,17 +6616,17 @@
         <v>460</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>187</v>
       </c>
@@ -6626,17 +6634,17 @@
         <v>455</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
         <v>190</v>
       </c>
@@ -6645,19 +6653,19 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B26" s="9" t="s">
         <v>194</v>
       </c>
       <c r="C26" s="8"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B27" s="9" t="s">
         <v>195</v>
       </c>
       <c r="C27" s="9"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>243</v>
       </c>
@@ -6668,7 +6676,7 @@
       </c>
       <c r="F28" s="9"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" t="s">
         <v>252</v>
@@ -6680,7 +6688,7 @@
       </c>
       <c r="F29" s="9"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" t="s">
         <v>253</v>
@@ -6692,7 +6700,7 @@
       </c>
       <c r="F30" s="9"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" t="s">
         <v>254</v>
@@ -6704,7 +6712,7 @@
       </c>
       <c r="F31" s="9"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>244</v>
       </c>
@@ -6715,7 +6723,7 @@
       </c>
       <c r="F32" s="9"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="9"/>
       <c r="B33" t="s">
         <v>255</v>
@@ -6727,7 +6735,7 @@
       </c>
       <c r="F33" s="9"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" t="s">
         <v>256</v>
@@ -6739,7 +6747,7 @@
       </c>
       <c r="F34" s="9"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" t="s">
         <v>257</v>
@@ -6751,7 +6759,7 @@
       </c>
       <c r="F35" s="9"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" t="s">
         <v>258</v>
@@ -6763,7 +6771,7 @@
       </c>
       <c r="F36" s="9"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" t="s">
         <v>259</v>
@@ -6775,12 +6783,12 @@
       </c>
       <c r="F37" s="9"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B39" s="9" t="s">
         <v>442</v>
       </c>
@@ -6789,7 +6797,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B40" s="9" t="s">
         <v>443</v>
       </c>
@@ -6798,7 +6806,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>155</v>
       </c>
@@ -6809,7 +6817,7 @@
       </c>
       <c r="F41" s="9"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>168</v>
       </c>
@@ -6820,7 +6828,7 @@
       </c>
       <c r="F42" s="9"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>169</v>
       </c>
@@ -6831,7 +6839,7 @@
       </c>
       <c r="F43" s="9"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>170</v>
       </c>
@@ -6842,7 +6850,7 @@
       </c>
       <c r="F44" s="9"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>171</v>
       </c>
@@ -6853,7 +6861,7 @@
       </c>
       <c r="F45" s="9"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>172</v>
       </c>
@@ -6864,57 +6872,57 @@
       </c>
       <c r="F46" s="9"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>536</v>
       </c>
       <c r="B47" s="9"/>
       <c r="C47" s="8"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B48" s="8" t="s">
         <v>305</v>
       </c>
       <c r="C48" s="9"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B49" s="8" t="s">
         <v>306</v>
       </c>
       <c r="C49" s="9"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>538</v>
       </c>
       <c r="B50" s="8"/>
       <c r="C50" s="9"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>307</v>
       </c>
       <c r="C51" s="8"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>308</v>
       </c>
       <c r="C52" s="9"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B53" s="8"/>
       <c r="C53" s="9"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B54" s="8"/>
       <c r="C54" s="9"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B55" s="8"/>
       <c r="C55" s="9"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B56" s="8"/>
       <c r="C56" s="9"/>
     </row>
@@ -6932,17 +6940,17 @@
       <selection activeCell="E17" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.08203125" style="3" customWidth="1"/>
-    <col min="2" max="4" width="13.4140625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="16" style="3" customWidth="1"/>
+    <col min="2" max="4" width="13.33203125" style="9" customWidth="1"/>
     <col min="5" max="6" width="29.33203125" style="9" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" style="7"/>
+    <col min="7" max="7" width="8.83203125" style="7"/>
     <col min="8" max="8" width="21.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.6640625" style="9"/>
+    <col min="9" max="16384" width="8.83203125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>385</v>
       </c>
@@ -6968,7 +6976,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>344</v>
       </c>
@@ -6976,13 +6984,13 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="9"/>
       <c r="B3" s="9" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="9"/>
       <c r="C4" s="9" t="s">
         <v>402</v>
@@ -6991,61 +6999,61 @@
         <v>344</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
       <c r="C5" s="9" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
       <c r="C6" s="9" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="E8" s="9" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
       <c r="E9" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
       <c r="E10" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
       <c r="E11" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
       <c r="E12" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="9" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>1</v>
       </c>
@@ -7055,7 +7063,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="9" t="s">
         <v>0</v>
@@ -7063,7 +7071,7 @@
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -7072,7 +7080,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -7081,7 +7089,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="9"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -7090,7 +7098,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="9"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -7099,7 +7107,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="9"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -7108,7 +7116,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="9"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -7117,7 +7125,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="9"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -7126,7 +7134,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="9"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -7135,7 +7143,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="9"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -7144,7 +7152,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="9"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -7153,7 +7161,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="9"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -7162,7 +7170,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
         <v>141</v>
       </c>
@@ -7170,7 +7178,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="9"/>
       <c r="B28" s="9" t="s">
         <v>48</v>
@@ -7179,97 +7187,97 @@
         <v>428</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="9"/>
       <c r="C29" s="9" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="9"/>
       <c r="C30" s="9" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="9"/>
       <c r="C31" s="9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="9"/>
       <c r="C32" s="9" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="9"/>
       <c r="C33" s="9" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="9"/>
       <c r="C34" s="9" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="9"/>
       <c r="C35" s="9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="9"/>
       <c r="C36" s="9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="9"/>
       <c r="C37" s="9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="9"/>
       <c r="C38" s="9" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="9"/>
       <c r="C39" s="9" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="9"/>
       <c r="C40" s="9" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="9"/>
       <c r="C41" s="9" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="9"/>
       <c r="C42" s="9" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="9"/>
       <c r="C43" s="9" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="9"/>
       <c r="B44" s="9" t="s">
         <v>11</v>
@@ -7278,81 +7286,81 @@
         <v>429</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="9"/>
       <c r="C45" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="9"/>
       <c r="C46" s="9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="9"/>
       <c r="C47" s="9" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="9"/>
       <c r="C48" s="9" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="9"/>
       <c r="C49" s="9" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="9"/>
       <c r="C50" s="9" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="9"/>
       <c r="C51" s="9" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="9"/>
       <c r="C52" s="9" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="9"/>
       <c r="C53" s="9" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="9"/>
       <c r="C54" s="9" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="9" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="9" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
         <v>151</v>
       </c>
@@ -7363,7 +7371,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="8"/>
       <c r="B58" s="8" t="s">
         <v>156</v>
@@ -7374,7 +7382,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -7383,7 +7391,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -7392,7 +7400,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -7401,7 +7409,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="8"/>
       <c r="B62" s="8" t="s">
         <v>155</v>
@@ -7412,7 +7420,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="8"/>
       <c r="B63" s="8" t="s">
         <v>157</v>
@@ -7423,7 +7431,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -7432,7 +7440,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
@@ -7441,7 +7449,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
@@ -7450,7 +7458,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -7459,7 +7467,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -7468,7 +7476,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
@@ -7477,7 +7485,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
@@ -7486,7 +7494,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
@@ -7495,7 +7503,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
@@ -7504,7 +7512,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -7513,7 +7521,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="8"/>
       <c r="B74" s="8" t="s">
         <v>434</v>
@@ -7524,7 +7532,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="8"/>
       <c r="B75" s="8" t="s">
         <v>143</v>
@@ -7532,7 +7540,7 @@
       <c r="C75" s="8"/>
       <c r="D75" s="8"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="D76" s="8"/>
@@ -7543,7 +7551,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="D77" s="8"/>
@@ -7554,7 +7562,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="D78" s="8"/>
@@ -7565,7 +7573,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="8" t="s">
         <v>173</v>
       </c>
@@ -7573,7 +7581,7 @@
       <c r="C79" s="8"/>
       <c r="D79" s="8"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="8"/>
       <c r="B80" s="8" t="s">
         <v>93</v>
@@ -7584,7 +7592,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="8"/>
       <c r="B81" s="8" t="s">
         <v>185</v>
@@ -7595,7 +7603,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="8"/>
       <c r="B82" s="8" t="s">
         <v>143</v>
@@ -7606,7 +7614,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="8"/>
       <c r="B83" s="8" t="s">
         <v>174</v>
@@ -7617,7 +7625,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="9" t="s">
@@ -7625,7 +7633,7 @@
       </c>
       <c r="D84" s="8"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
       <c r="C85" s="9" t="s">
@@ -7633,7 +7641,7 @@
       </c>
       <c r="D85" s="8"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
       <c r="C86" s="9" t="s">
@@ -7641,7 +7649,7 @@
       </c>
       <c r="D86" s="8"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
       <c r="C87" s="9" t="s">
@@ -7649,7 +7657,7 @@
       </c>
       <c r="D87" s="8"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="9" t="s">
@@ -7657,7 +7665,7 @@
       </c>
       <c r="D88" s="8"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="9" t="s">
@@ -7665,7 +7673,7 @@
       </c>
       <c r="D89" s="8"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
       <c r="C90" s="9" t="s">
@@ -7673,7 +7681,7 @@
       </c>
       <c r="D90" s="8"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="9" t="s">
@@ -7681,7 +7689,7 @@
       </c>
       <c r="D91" s="8"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="8"/>
       <c r="B92" s="8"/>
       <c r="C92" s="9" t="s">
@@ -7689,7 +7697,7 @@
       </c>
       <c r="D92" s="8"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="8"/>
       <c r="B93" s="8" t="s">
         <v>184</v>
@@ -7700,7 +7708,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="8"/>
       <c r="B94" s="8" t="s">
         <v>446</v>
@@ -7711,7 +7719,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="9" t="s">
         <v>186</v>
       </c>
@@ -7719,7 +7727,7 @@
       <c r="C95" s="8"/>
       <c r="D95" s="8"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="8"/>
       <c r="B96" s="8" t="s">
         <v>143</v>
@@ -7727,7 +7735,7 @@
       <c r="C96" s="8"/>
       <c r="D96" s="8"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="8"/>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
@@ -7739,7 +7747,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="8"/>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
@@ -7748,7 +7756,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="8"/>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
@@ -7757,7 +7765,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="8"/>
       <c r="B100" s="8" t="s">
         <v>326</v>
@@ -7765,7 +7773,7 @@
       <c r="C100" s="8"/>
       <c r="D100" s="8"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="9" t="s">
         <v>187</v>
       </c>
@@ -7776,7 +7784,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="9"/>
       <c r="B102" s="8" t="s">
         <v>185</v>
@@ -7787,7 +7795,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="9"/>
       <c r="B103" s="8" t="s">
         <v>143</v>
@@ -7798,7 +7806,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="9"/>
       <c r="B104" s="8" t="s">
         <v>188</v>
@@ -7809,7 +7817,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="9"/>
       <c r="B105" s="8" t="s">
         <v>189</v>
@@ -7820,7 +7828,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="9"/>
       <c r="B106" s="8" t="s">
         <v>326</v>
@@ -7831,7 +7839,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="9" t="s">
         <v>190</v>
       </c>
@@ -7842,7 +7850,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="9"/>
       <c r="B108" s="8" t="s">
         <v>193</v>
@@ -7850,7 +7858,7 @@
       <c r="C108" s="8"/>
       <c r="D108" s="8"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="9"/>
       <c r="B109" s="8" t="s">
         <v>185</v>
@@ -7858,7 +7866,7 @@
       <c r="C109" s="8"/>
       <c r="D109" s="8"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="9"/>
       <c r="B110" s="8" t="s">
         <v>326</v>
@@ -7866,7 +7874,7 @@
       <c r="C110" s="8"/>
       <c r="D110" s="8"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="9" t="s">
         <v>196</v>
       </c>
@@ -7877,7 +7885,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="9"/>
       <c r="B112" s="8" t="s">
         <v>189</v>
@@ -7888,7 +7896,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="9"/>
       <c r="B113" s="8" t="s">
         <v>193</v>
@@ -7899,7 +7907,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="9"/>
       <c r="B114" s="8" t="s">
         <v>458</v>
@@ -7910,7 +7918,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="9"/>
       <c r="B115" s="8" t="s">
         <v>326</v>
@@ -7921,7 +7929,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="9" t="s">
         <v>7</v>
       </c>
@@ -7934,7 +7942,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="8"/>
       <c r="B117" s="8" t="s">
         <v>143</v>
@@ -7944,7 +7952,7 @@
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="8"/>
       <c r="B118" s="8"/>
       <c r="C118" s="8"/>
@@ -7953,7 +7961,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="8"/>
       <c r="B119" s="8"/>
       <c r="C119" s="8"/>
@@ -7962,7 +7970,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="8"/>
       <c r="B120" s="8"/>
       <c r="C120" s="8"/>
@@ -7971,7 +7979,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="9" t="s">
         <v>90</v>
       </c>
@@ -7979,7 +7987,7 @@
       <c r="C121" s="8"/>
       <c r="D121" s="8"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="9"/>
       <c r="B122" s="8" t="s">
         <v>174</v>
@@ -7990,7 +7998,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="9"/>
       <c r="B123" s="8"/>
       <c r="C123" s="9" t="s">
@@ -7998,7 +8006,7 @@
       </c>
       <c r="D123" s="8"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="9"/>
       <c r="B124" s="8"/>
       <c r="C124" s="9" t="s">
@@ -8006,7 +8014,7 @@
       </c>
       <c r="D124" s="8"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="9"/>
       <c r="B125" s="8"/>
       <c r="C125" s="9" t="s">
@@ -8014,7 +8022,7 @@
       </c>
       <c r="D125" s="8"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" s="9"/>
       <c r="B126" s="8"/>
       <c r="C126" s="9" t="s">
@@ -8022,7 +8030,7 @@
       </c>
       <c r="D126" s="8"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="9"/>
       <c r="B127" s="8"/>
       <c r="C127" s="9" t="s">
@@ -8030,7 +8038,7 @@
       </c>
       <c r="D127" s="8"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="9"/>
       <c r="B128" s="8"/>
       <c r="C128" s="9" t="s">
@@ -8038,7 +8046,7 @@
       </c>
       <c r="D128" s="8"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="9"/>
       <c r="B129" s="8"/>
       <c r="C129" s="9" t="s">
@@ -8046,7 +8054,7 @@
       </c>
       <c r="D129" s="8"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="9"/>
       <c r="B130" s="8"/>
       <c r="C130" s="9" t="s">
@@ -8054,7 +8062,7 @@
       </c>
       <c r="D130" s="8"/>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="9"/>
       <c r="B131" s="8"/>
       <c r="C131" s="9" t="s">
@@ -8062,7 +8070,7 @@
       </c>
       <c r="D131" s="8"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" s="9"/>
       <c r="B132" s="8"/>
       <c r="C132" s="9" t="s">
@@ -8070,7 +8078,7 @@
       </c>
       <c r="D132" s="8"/>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" s="9"/>
       <c r="B133" s="8" t="s">
         <v>206</v>
@@ -8078,7 +8086,7 @@
       <c r="C133" s="8"/>
       <c r="D133" s="8"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" s="9"/>
       <c r="B134" s="8"/>
       <c r="C134" s="9" t="s">
@@ -8089,7 +8097,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" s="9"/>
       <c r="B135" s="8"/>
       <c r="C135" s="9" t="s">
@@ -8100,7 +8108,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="9"/>
       <c r="B136" s="8"/>
       <c r="C136" s="9" t="s">
@@ -8111,7 +8119,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" s="9"/>
       <c r="B137" s="8" t="s">
         <v>461</v>
@@ -8122,7 +8130,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" s="9" t="s">
         <v>210</v>
       </c>
@@ -8133,7 +8141,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" s="9"/>
       <c r="B139" s="8" t="s">
         <v>143</v>
@@ -8144,7 +8152,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" s="9"/>
       <c r="B140" s="8"/>
       <c r="C140" s="8"/>
@@ -8156,7 +8164,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" s="9"/>
       <c r="B141" s="8"/>
       <c r="C141" s="8"/>
@@ -8168,7 +8176,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" s="9"/>
       <c r="B142" s="8"/>
       <c r="C142" s="8"/>
@@ -8180,7 +8188,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" s="9"/>
       <c r="B143" s="8"/>
       <c r="C143" s="8"/>
@@ -8192,7 +8200,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" s="9"/>
       <c r="B144" s="8"/>
       <c r="C144" s="8"/>
@@ -8204,7 +8212,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" s="9"/>
       <c r="B145" s="8"/>
       <c r="C145" s="8"/>
@@ -8216,7 +8224,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" s="9"/>
       <c r="B146" s="8"/>
       <c r="C146" s="8"/>
@@ -8228,7 +8236,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" s="9"/>
       <c r="B147" s="8"/>
       <c r="C147" s="8"/>
@@ -8240,7 +8248,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" s="9"/>
       <c r="B148" s="8" t="s">
         <v>174</v>
@@ -8251,7 +8259,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" s="9"/>
       <c r="B149" s="8"/>
       <c r="C149" s="9" t="s">
@@ -8262,7 +8270,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" s="9"/>
       <c r="B150" s="8"/>
       <c r="C150" s="9" t="s">
@@ -8273,7 +8281,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" s="9"/>
       <c r="B151" s="8"/>
       <c r="C151" s="9" t="s">
@@ -8284,7 +8292,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" s="9"/>
       <c r="B152" s="8"/>
       <c r="C152" s="9" t="s">
@@ -8295,7 +8303,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" s="9"/>
       <c r="B153" s="8"/>
       <c r="C153" s="9" t="s">
@@ -8306,7 +8314,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" s="9"/>
       <c r="B154" s="8"/>
       <c r="C154" s="9" t="s">
@@ -8317,7 +8325,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" s="9"/>
       <c r="B155" s="8"/>
       <c r="C155" s="9" t="s">
@@ -8328,7 +8336,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" s="9" t="s">
         <v>225</v>
       </c>
@@ -8336,7 +8344,7 @@
       <c r="C156" s="8"/>
       <c r="D156" s="8"/>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" s="9"/>
       <c r="B157" s="8" t="s">
         <v>226</v>
@@ -8347,7 +8355,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" s="9"/>
       <c r="B158" s="8"/>
       <c r="C158" s="8" t="s">
@@ -8358,7 +8366,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" s="9"/>
       <c r="B159" s="8"/>
       <c r="C159" s="8" t="s">
@@ -8369,7 +8377,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" s="9"/>
       <c r="B160" s="8"/>
       <c r="C160" s="8" t="s">
@@ -8380,7 +8388,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" s="9"/>
       <c r="B161" s="8"/>
       <c r="C161" s="8" t="s">
@@ -8391,7 +8399,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" s="9"/>
       <c r="B162" s="8" t="s">
         <v>227</v>
@@ -8402,7 +8410,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" s="9"/>
       <c r="B163" s="8"/>
       <c r="C163" s="9" t="s">
@@ -8413,7 +8421,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" s="9"/>
       <c r="B164" s="8"/>
       <c r="C164" s="9" t="s">
@@ -8424,7 +8432,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" s="9"/>
       <c r="B165" s="8" t="s">
         <v>230</v>
@@ -8435,7 +8443,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" s="9"/>
       <c r="B166" s="8" t="s">
         <v>231</v>
@@ -8446,7 +8454,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" s="9"/>
       <c r="B167" s="8"/>
       <c r="C167" s="9" t="s">
@@ -8457,7 +8465,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" s="9"/>
       <c r="B168" s="8"/>
       <c r="C168" s="9" t="s">
@@ -8468,7 +8476,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" s="9"/>
       <c r="B169" s="8" t="s">
         <v>234</v>
@@ -8479,7 +8487,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" s="9"/>
       <c r="B170" s="8"/>
       <c r="C170" s="9" t="s">
@@ -8490,7 +8498,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" s="9"/>
       <c r="B171" s="8"/>
       <c r="C171" s="9" t="s">
@@ -8501,7 +8509,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" s="9"/>
       <c r="B172" s="8"/>
       <c r="C172" s="9" t="s">
@@ -8512,7 +8520,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" s="9"/>
       <c r="B173" s="8" t="s">
         <v>238</v>
@@ -8523,7 +8531,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" s="9"/>
       <c r="B174" s="8" t="s">
         <v>239</v>
@@ -8534,7 +8542,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" s="9" t="s">
         <v>240</v>
       </c>
@@ -8545,7 +8553,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" s="9"/>
       <c r="B176" s="8" t="s">
         <v>241</v>
@@ -8556,7 +8564,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" s="9"/>
       <c r="B177" s="8" t="s">
         <v>242</v>
@@ -8567,7 +8575,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" s="9"/>
       <c r="B178" s="8" t="s">
         <v>243</v>
@@ -8578,7 +8586,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" s="9"/>
       <c r="B179" s="8" t="s">
         <v>244</v>
@@ -8589,7 +8597,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" s="9" t="s">
         <v>246</v>
       </c>
@@ -8600,7 +8608,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" s="9"/>
       <c r="B181" s="8" t="s">
         <v>247</v>
@@ -8611,7 +8619,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" s="9"/>
       <c r="B182" s="8" t="s">
         <v>249</v>
@@ -8620,7 +8628,7 @@
       <c r="D182" s="8"/>
       <c r="G182" s="9"/>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" s="9"/>
       <c r="B183" s="8"/>
       <c r="C183" s="8"/>
@@ -8632,7 +8640,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" s="9"/>
       <c r="B184" s="8"/>
       <c r="C184" s="8"/>
@@ -8644,7 +8652,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" s="9"/>
       <c r="B185" s="8"/>
       <c r="C185" s="8"/>
@@ -8656,7 +8664,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" s="9" t="s">
         <v>245</v>
       </c>
@@ -8667,7 +8675,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" s="9"/>
       <c r="B187" s="8" t="s">
         <v>142</v>
@@ -8678,7 +8686,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" s="9"/>
       <c r="B188" s="8" t="s">
         <v>260</v>
@@ -8689,7 +8697,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" s="9"/>
       <c r="B189" s="8"/>
       <c r="C189" s="8"/>
@@ -8701,7 +8709,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190" s="9"/>
       <c r="B190" s="8"/>
       <c r="C190" s="8"/>
@@ -8713,7 +8721,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191" s="9"/>
       <c r="B191" s="8"/>
       <c r="C191" s="8"/>
@@ -8725,7 +8733,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192" s="9"/>
       <c r="B192" s="8"/>
       <c r="C192" s="8"/>
@@ -8737,7 +8745,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" s="9"/>
       <c r="B193" s="8"/>
       <c r="C193" s="8"/>
@@ -8749,7 +8757,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" s="9"/>
       <c r="B194" s="8" t="s">
         <v>266</v>
@@ -8760,7 +8768,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195" s="9"/>
       <c r="B195" s="8"/>
       <c r="C195" s="8"/>
@@ -8772,7 +8780,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196" s="9"/>
       <c r="B196" s="8"/>
       <c r="C196" s="8"/>
@@ -8784,7 +8792,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197" s="9"/>
       <c r="B197" s="8"/>
       <c r="C197" s="8"/>
@@ -8796,7 +8804,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198" s="9"/>
       <c r="B198" s="8"/>
       <c r="C198" s="8"/>
@@ -8808,7 +8816,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199" s="9"/>
       <c r="B199" s="9" t="s">
         <v>271</v>
@@ -8817,7 +8825,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200" s="9"/>
       <c r="B200" s="9" t="s">
         <v>279</v>
@@ -8826,7 +8834,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" s="9" t="s">
         <v>271</v>
       </c>
@@ -8837,7 +8845,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" s="9"/>
       <c r="B202" s="8" t="s">
         <v>143</v>
@@ -8848,7 +8856,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203" s="9"/>
       <c r="B203" s="8" t="s">
         <v>272</v>
@@ -8859,7 +8867,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204" s="9"/>
       <c r="B204" s="8"/>
       <c r="C204" s="8"/>
@@ -8868,7 +8876,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205" s="9"/>
       <c r="B205" s="8"/>
       <c r="C205" s="8"/>
@@ -8877,7 +8885,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206" s="9"/>
       <c r="B206" s="8"/>
       <c r="C206" s="8"/>
@@ -8886,7 +8894,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207" s="9"/>
       <c r="B207" s="8"/>
       <c r="C207" s="8"/>
@@ -8895,7 +8903,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208" s="9"/>
       <c r="B208" s="8"/>
       <c r="C208" s="8"/>
@@ -8904,7 +8912,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209" s="8"/>
       <c r="B209" s="8" t="s">
         <v>273</v>
@@ -8917,7 +8925,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210" s="9" t="s">
         <v>279</v>
       </c>
@@ -8928,7 +8936,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A211" s="9"/>
       <c r="B211" s="8" t="s">
         <v>280</v>
@@ -8939,7 +8947,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A212" s="9"/>
       <c r="B212" s="9" t="s">
         <v>326</v>
@@ -8950,7 +8958,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A213" s="9" t="s">
         <v>281</v>
       </c>
@@ -8961,7 +8969,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A214" s="9"/>
       <c r="B214" s="8" t="s">
         <v>143</v>
@@ -8972,7 +8980,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A215" s="9"/>
       <c r="B215" s="8"/>
       <c r="C215" s="8"/>
@@ -8981,7 +8989,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A216" s="9"/>
       <c r="B216" s="8"/>
       <c r="C216" s="8"/>
@@ -8990,7 +8998,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A217" s="9"/>
       <c r="B217" s="8"/>
       <c r="C217" s="8"/>
@@ -8999,7 +9007,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A218" s="9"/>
       <c r="B218" s="8" t="s">
         <v>326</v>
@@ -9010,7 +9018,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A219" s="9"/>
       <c r="B219" s="8" t="s">
         <v>272</v>
@@ -9021,7 +9029,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A220" s="9" t="s">
         <v>282</v>
       </c>
@@ -9032,7 +9040,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A221" s="9"/>
       <c r="B221" s="8" t="s">
         <v>535</v>
@@ -9040,19 +9048,19 @@
       <c r="C221" s="8"/>
       <c r="D221" s="8"/>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A222" s="9"/>
       <c r="E222" s="9" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A223" s="9"/>
       <c r="E223" s="9" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A224" s="9" t="s">
         <v>286</v>
       </c>
@@ -9063,7 +9071,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" s="9"/>
       <c r="B225" s="8" t="s">
         <v>143</v>
@@ -9071,7 +9079,7 @@
       <c r="C225" s="8"/>
       <c r="D225" s="8"/>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" s="9"/>
       <c r="B226" s="8"/>
       <c r="C226" s="8"/>
@@ -9080,7 +9088,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" s="9"/>
       <c r="B227" s="8"/>
       <c r="C227" s="8"/>
@@ -9089,7 +9097,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" s="9"/>
       <c r="B228" s="8"/>
       <c r="C228" s="8"/>
@@ -9098,7 +9106,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" s="9"/>
       <c r="B229" s="8"/>
       <c r="C229" s="8"/>
@@ -9107,7 +9115,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" s="9"/>
       <c r="B230" s="8" t="s">
         <v>287</v>
@@ -9115,7 +9123,7 @@
       <c r="C230" s="8"/>
       <c r="D230" s="8"/>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" s="9"/>
       <c r="B231" s="8"/>
       <c r="C231" s="9" t="s">
@@ -9123,7 +9131,7 @@
       </c>
       <c r="D231" s="8"/>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" s="9"/>
       <c r="B232" s="8"/>
       <c r="C232" s="9" t="s">
@@ -9131,7 +9139,7 @@
       </c>
       <c r="D232" s="8"/>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" s="9"/>
       <c r="B233" s="8"/>
       <c r="C233" s="9" t="s">
@@ -9139,7 +9147,7 @@
       </c>
       <c r="D233" s="8"/>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" s="9"/>
       <c r="B234" s="8"/>
       <c r="C234" s="9" t="s">
@@ -9147,7 +9155,7 @@
       </c>
       <c r="D234" s="8"/>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" s="9"/>
       <c r="B235" s="8"/>
       <c r="C235" s="9" t="s">
@@ -9155,7 +9163,7 @@
       </c>
       <c r="D235" s="8"/>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" s="9"/>
       <c r="B236" s="8"/>
       <c r="C236" s="9" t="s">
@@ -9163,7 +9171,7 @@
       </c>
       <c r="D236" s="8"/>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" s="9"/>
       <c r="B237" s="8"/>
       <c r="C237" s="9" t="s">
@@ -9171,7 +9179,7 @@
       </c>
       <c r="D237" s="8"/>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" s="9"/>
       <c r="B238" s="8"/>
       <c r="C238" s="9" t="s">
@@ -9179,7 +9187,7 @@
       </c>
       <c r="D238" s="8"/>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" s="9"/>
       <c r="B239" s="8"/>
       <c r="C239" s="9" t="s">
@@ -9187,7 +9195,7 @@
       </c>
       <c r="D239" s="8"/>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" s="9"/>
       <c r="B240" s="8"/>
       <c r="C240" s="9" t="s">
@@ -9195,7 +9203,7 @@
       </c>
       <c r="D240" s="8"/>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A241" s="9"/>
       <c r="B241" s="8"/>
       <c r="C241" s="9" t="s">
@@ -9203,7 +9211,7 @@
       </c>
       <c r="D241" s="8"/>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A242" s="9"/>
       <c r="B242" s="8"/>
       <c r="C242" s="9" t="s">
@@ -9211,7 +9219,7 @@
       </c>
       <c r="D242" s="8"/>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A243" s="9"/>
       <c r="B243" s="8"/>
       <c r="C243" s="9" t="s">
@@ -9219,7 +9227,7 @@
       </c>
       <c r="D243" s="8"/>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A244" s="9" t="s">
         <v>284</v>
       </c>
@@ -9230,7 +9238,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A245" s="9"/>
       <c r="B245" s="8" t="s">
         <v>302</v>
@@ -9238,7 +9246,7 @@
       <c r="C245" s="8"/>
       <c r="D245" s="8"/>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A246" s="9"/>
       <c r="B246" s="8" t="s">
         <v>303</v>
@@ -9246,7 +9254,7 @@
       <c r="C246" s="8"/>
       <c r="D246" s="8"/>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A247" s="9"/>
       <c r="B247" s="8" t="s">
         <v>304</v>
@@ -9254,7 +9262,7 @@
       <c r="C247" s="8"/>
       <c r="D247" s="8"/>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A248" s="9" t="s">
         <v>302</v>
       </c>
@@ -9265,7 +9273,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A249" s="9"/>
       <c r="B249" s="8" t="s">
         <v>143</v>
@@ -9273,7 +9281,7 @@
       <c r="C249" s="8"/>
       <c r="D249" s="8"/>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A250" s="9"/>
       <c r="B250" s="8" t="s">
         <v>537</v>
@@ -9281,7 +9289,7 @@
       <c r="C250" s="8"/>
       <c r="D250" s="8"/>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A251" s="9" t="s">
         <v>309</v>
       </c>
@@ -9292,7 +9300,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A252" s="9"/>
       <c r="B252" s="8" t="s">
         <v>143</v>
@@ -9300,7 +9308,7 @@
       <c r="C252" s="8"/>
       <c r="D252" s="8"/>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A253" s="9"/>
       <c r="B253" s="8" t="s">
         <v>272</v>
@@ -9308,7 +9316,7 @@
       <c r="C253" s="8"/>
       <c r="D253" s="8"/>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A254" s="9"/>
       <c r="B254" s="8"/>
       <c r="C254" s="8"/>
@@ -9317,7 +9325,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A255" s="9"/>
       <c r="B255" s="8"/>
       <c r="C255" s="8"/>
@@ -9340,15 +9348,15 @@
       <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="8"/>
+    <col min="1" max="1" width="8.83203125" style="8"/>
     <col min="2" max="2" width="14.5" style="8" customWidth="1"/>
-    <col min="3" max="3" width="16.58203125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="8" customWidth="1"/>
     <col min="5" max="5" width="18.5" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>388</v>
       </c>
@@ -9371,7 +9379,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>387</v>
       </c>
@@ -9381,119 +9389,119 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="9"/>
       <c r="B3" s="9" t="s">
         <v>32</v>
       </c>
       <c r="C3" s="9"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="9" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="9"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
       <c r="B11" s="9" t="s">
         <v>40</v>
       </c>
       <c r="C11" s="9"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
       <c r="B17" s="9" t="s">
         <v>46</v>
       </c>
       <c r="C17" s="9"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="9"/>
       <c r="B18" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C18" s="9"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>173</v>
       </c>
@@ -9501,17 +9509,17 @@
         <v>448</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B20" s="9" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B21" s="9" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
         <v>187</v>
       </c>
@@ -9519,17 +9527,17 @@
         <v>455</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B23" s="9" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B24" s="9" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
         <v>190</v>
       </c>
@@ -9538,18 +9546,18 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B26" s="9" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B27" s="9" t="s">
         <v>195</v>
       </c>
       <c r="C27" s="9"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
         <v>243</v>
       </c>
@@ -9557,7 +9565,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="9"/>
       <c r="B29" s="8" t="s">
         <v>252</v>
@@ -9566,7 +9574,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="9"/>
       <c r="B30" s="8" t="s">
         <v>253</v>
@@ -9575,7 +9583,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="9"/>
       <c r="B31" s="8" t="s">
         <v>254</v>
@@ -9584,7 +9592,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
         <v>244</v>
       </c>
@@ -9592,7 +9600,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="9"/>
       <c r="B33" s="8" t="s">
         <v>255</v>
@@ -9601,7 +9609,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="9"/>
       <c r="B34" s="8" t="s">
         <v>256</v>
@@ -9610,7 +9618,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="9"/>
       <c r="B35" s="8" t="s">
         <v>257</v>
@@ -9619,7 +9627,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="9"/>
       <c r="B36" s="8" t="s">
         <v>258</v>
@@ -9628,7 +9636,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="9"/>
       <c r="B37" s="8" t="s">
         <v>259</v>
@@ -9637,12 +9645,12 @@
         <v>505</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B39" s="9" t="s">
         <v>442</v>
       </c>
@@ -9651,7 +9659,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B40" s="9" t="s">
         <v>443</v>
       </c>
@@ -9660,7 +9668,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
         <v>155</v>
       </c>
@@ -9668,7 +9676,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B42" s="8" t="s">
         <v>168</v>
       </c>
@@ -9676,7 +9684,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B43" s="8" t="s">
         <v>169</v>
       </c>
@@ -9684,7 +9692,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B44" s="8" t="s">
         <v>170</v>
       </c>
@@ -9692,7 +9700,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B45" s="8" t="s">
         <v>171</v>
       </c>
@@ -9700,7 +9708,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B46" s="8" t="s">
         <v>172</v>
       </c>
@@ -9708,51 +9716,51 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
         <v>536</v>
       </c>
       <c r="B47" s="9"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B48" s="8" t="s">
         <v>305</v>
       </c>
       <c r="C48" s="9"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B49" s="8" t="s">
         <v>306</v>
       </c>
       <c r="C49" s="9"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
         <v>538</v>
       </c>
       <c r="C50" s="9"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B51" s="8" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B52" s="8" t="s">
         <v>308</v>
       </c>
       <c r="C52" s="9"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C53" s="9"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C54" s="9"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C55" s="9"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C56" s="9"/>
     </row>
   </sheetData>
@@ -9765,19 +9773,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I122"/>
   <sheetViews>
-    <sheetView topLeftCell="A72" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A72" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
       <selection activeCell="C17" sqref="C17:C86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.75" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.9140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.9140625" customWidth="1"/>
-    <col min="5" max="5" width="24.25" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" customWidth="1"/>
+    <col min="5" max="5" width="24.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>407</v>
       </c>
@@ -9791,644 +9799,644 @@
         <v>410</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="9" t="s">
         <v>401</v>
       </c>
       <c r="C4" s="9"/>
     </row>
-    <row r="5" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="8" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="8" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15" s="8" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="C17" s="9" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="C18" s="9" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
       <c r="C19" s="9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>
       <c r="C20" s="9" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="C21" s="9" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
       <c r="C22" s="9" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
       <c r="C23" s="9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
       <c r="C24" s="9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5"/>
       <c r="C25" s="9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
       <c r="C26" s="9" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5"/>
       <c r="C27" s="9" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
       <c r="C28" s="9" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
       <c r="C29" s="9" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5"/>
       <c r="C30" s="9" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
       <c r="C31" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
       <c r="C32" s="9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5"/>
       <c r="C33" s="9" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5"/>
       <c r="C34" s="9" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
       <c r="C35" s="9" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="5"/>
       <c r="C36" s="9" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="5"/>
       <c r="C37" s="9" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="38" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="5"/>
       <c r="C38" s="9" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="39" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="5"/>
       <c r="C39" s="9" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="40" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="5"/>
       <c r="C40" s="9" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="41" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5"/>
       <c r="C41" s="9" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="42" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="5"/>
       <c r="C42" s="9" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="43" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="5"/>
       <c r="C43" s="9" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="44" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="5"/>
       <c r="C44" s="9" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="45" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="5"/>
       <c r="C45" s="9" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="46" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="5"/>
       <c r="C46" s="9" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="47" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="5"/>
       <c r="C47" s="9" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="5"/>
       <c r="C48" s="9" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="49" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="5"/>
       <c r="C49" s="9" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="50" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="5"/>
       <c r="C50" s="9" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="51" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="5"/>
       <c r="C51" s="9" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="52" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="5"/>
       <c r="C52" s="9" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="53" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="5"/>
       <c r="C53" s="9" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="54" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="5"/>
       <c r="C54" s="9" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="55" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="5"/>
       <c r="C55" s="9" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="56" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="5"/>
       <c r="C56" s="9" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="57" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="5"/>
       <c r="C57" s="9" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="58" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="5"/>
       <c r="C58" s="9" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="59" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="5"/>
       <c r="C59" s="9" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="60" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="5"/>
       <c r="C60" s="9" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="61" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="5"/>
       <c r="C61" s="9" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="62" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="5"/>
       <c r="C62" s="9" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="63" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="5"/>
       <c r="C63" s="9" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="64" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="5"/>
       <c r="C64" s="9" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="65" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="5"/>
       <c r="C65" s="9" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="66" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="5"/>
       <c r="C66" s="9" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="67" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="5"/>
       <c r="C67" s="9" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="68" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="5"/>
       <c r="C68" s="9" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="69" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="5"/>
       <c r="C69" s="9" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="70" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="5"/>
       <c r="C70" s="9" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="71" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="5"/>
       <c r="C71" s="9" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="72" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="5"/>
       <c r="C72" s="9" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="73" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="5"/>
       <c r="C73" s="9" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="74" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="5"/>
       <c r="C74" s="9" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="75" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="5"/>
       <c r="C75" s="9" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="76" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="5"/>
       <c r="C76" s="9" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="77" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="5"/>
       <c r="C77" s="9" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="78" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="5"/>
       <c r="C78" s="9" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="79" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="5"/>
       <c r="C79" s="9" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="80" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="5"/>
       <c r="C80" s="9" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="81" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="5"/>
       <c r="C81" s="9" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="82" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="5"/>
       <c r="C82" s="9" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="83" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="5"/>
       <c r="C83" s="9" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="84" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="5"/>
       <c r="C84" s="9" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="85" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="5"/>
       <c r="C85" s="9" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="86" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="5"/>
       <c r="C86" s="9" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="87" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="5"/>
       <c r="B87" s="8" t="s">
         <v>526</v>
       </c>
       <c r="C87" s="9"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="5" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="96" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="5" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="97" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="5"/>
       <c r="B97" s="8" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="98" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="5"/>
       <c r="B98" s="8" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="99" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="5"/>
       <c r="B99" s="8" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="100" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="5"/>
       <c r="B100" s="8" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="101" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="5"/>
       <c r="B101" s="8" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="102" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="5"/>
       <c r="B102" s="8" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="103" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="5"/>
       <c r="B103" s="8" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" s="5" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" s="6" t="s">
         <v>313</v>
       </c>
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="6"/>
       <c r="B110" s="9" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" s="6"/>
       <c r="B111" s="4" t="s">
         <v>312</v>
@@ -10438,7 +10446,7 @@
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" s="6" t="s">
         <v>312</v>
       </c>
@@ -10450,7 +10458,7 @@
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" s="6"/>
       <c r="B113" s="1" t="s">
         <v>314</v>
@@ -10462,7 +10470,7 @@
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" s="6"/>
       <c r="B114" s="1" t="s">
         <v>315</v>
@@ -10474,7 +10482,7 @@
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" s="6"/>
       <c r="B115" s="1" t="s">
         <v>316</v>
@@ -10486,7 +10494,7 @@
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" s="6"/>
       <c r="B116" s="1" t="s">
         <v>317</v>
@@ -10498,7 +10506,7 @@
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" s="6" t="s">
         <v>318</v>
       </c>
@@ -10510,7 +10518,7 @@
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" s="6"/>
       <c r="B118" s="1" t="s">
         <v>319</v>
@@ -10522,7 +10530,7 @@
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" s="6"/>
       <c r="B119" s="1" t="s">
         <v>320</v>
@@ -10534,7 +10542,7 @@
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" s="6"/>
       <c r="B120" s="1" t="s">
         <v>321</v>
@@ -10546,7 +10554,7 @@
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121" s="6"/>
       <c r="B121" s="1" t="s">
         <v>322</v>
@@ -10558,7 +10566,7 @@
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" s="6"/>
       <c r="B122" s="1" t="s">
         <v>323</v>
@@ -10581,22 +10589,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41:C46"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.4140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="10.4140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>416</v>
       </c>
@@ -10610,13 +10618,13 @@
         <v>418</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>414</v>
       </c>
@@ -10627,255 +10635,255 @@
         <v>419</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="9" t="s">
         <v>387</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
     </row>
-    <row r="7" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="9"/>
       <c r="C7" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D7" s="9"/>
     </row>
-    <row r="8" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="9"/>
       <c r="C11" s="9" t="s">
         <v>36</v>
       </c>
       <c r="D11" s="9"/>
     </row>
-    <row r="12" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="9"/>
       <c r="C15" s="9" t="s">
         <v>40</v>
       </c>
       <c r="D15" s="9"/>
     </row>
-    <row r="16" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="2:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="2:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="2:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="2:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B21" s="9"/>
       <c r="C21" s="9" t="s">
         <v>46</v>
       </c>
       <c r="D21" s="9"/>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B22" s="9"/>
       <c r="C22" s="9" t="s">
         <v>47</v>
       </c>
       <c r="D22" s="9"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B23" s="8" t="s">
         <v>541</v>
       </c>
       <c r="C23" s="8"/>
     </row>
-    <row r="24" spans="2:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C24" s="9" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="25" spans="2:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C25" s="9" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="26" spans="2:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="9" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="27" spans="2:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C27" s="9" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="28" spans="2:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C28" s="9" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="29" spans="2:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="9" t="s">
         <v>543</v>
       </c>
       <c r="C29" s="9"/>
     </row>
-    <row r="30" spans="2:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C30" s="9" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B31" s="8"/>
       <c r="C31" s="9" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="32" spans="2:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="8" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="33" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C33" s="9" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C34" s="9" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="35" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="8" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="36" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C36" s="8" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="37" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C37" s="8" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="38" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C38" s="8" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="39" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C39" s="8" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C40" s="8" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="41" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="8" t="s">
         <v>536</v>
       </c>
       <c r="C41" s="9"/>
     </row>
-    <row r="42" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C42" s="8" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="43" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C43" s="8" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="44" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="8" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="45" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C45" s="8" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="46" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C46" s="8" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>421</v>
       </c>
@@ -10898,12 +10906,12 @@
         <v>427</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>545</v>
       </c>
@@ -10911,61 +10919,61 @@
         <v>546</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B53" s="9" t="s">
         <v>243</v>
       </c>
       <c r="C53" s="8"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B54" s="9"/>
       <c r="C54" s="8" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B55" s="9"/>
       <c r="C55" s="8" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B56" s="9"/>
       <c r="C56" s="8" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B57" s="9" t="s">
         <v>244</v>
       </c>
       <c r="C57" s="8"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B58" s="9"/>
       <c r="C58" s="8" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B59" s="9"/>
       <c r="C59" s="8" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B60" s="9"/>
       <c r="C60" s="8" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B61" s="9"/>
       <c r="C61" s="8" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B62" s="9"/>
       <c r="C62" s="8" t="s">
         <v>259</v>
@@ -10985,7 +10993,7 @@
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11000,14 +11008,14 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.33203125" customWidth="1"/>
-    <col min="5" max="5" width="17.75" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
     <col min="6" max="6" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>82</v>
       </c>
@@ -11039,7 +11047,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>345</v>
       </c>
@@ -11047,7 +11055,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>347</v>
       </c>
@@ -11055,7 +11063,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>548</v>
       </c>
@@ -11063,7 +11071,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>349</v>
       </c>
@@ -11071,7 +11079,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>351</v>
       </c>
@@ -11079,7 +11087,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>352</v>
       </c>
@@ -11087,7 +11095,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>113</v>
       </c>
@@ -11095,7 +11103,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>94</v>
       </c>
@@ -11103,7 +11111,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>99</v>
       </c>
@@ -11111,7 +11119,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>102</v>
       </c>
@@ -11119,7 +11127,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>107</v>
       </c>
@@ -11127,7 +11135,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>115</v>
       </c>
@@ -11135,7 +11143,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>117</v>
       </c>
@@ -11157,16 +11165,16 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.5" customWidth="1"/>
-    <col min="3" max="3" width="16.58203125" customWidth="1"/>
-    <col min="4" max="4" width="40.25" customWidth="1"/>
-    <col min="6" max="6" width="13.75" customWidth="1"/>
-    <col min="7" max="7" width="10.9140625" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="4" max="4" width="40.1640625" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>69</v>
       </c>
@@ -11207,7 +11215,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>574</v>
       </c>
@@ -11221,7 +11229,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>359</v>
       </c>
@@ -11235,7 +11243,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>363</v>
       </c>
@@ -11249,7 +11257,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>365</v>
       </c>
@@ -11263,7 +11271,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>370</v>
       </c>
@@ -11277,7 +11285,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>562</v>
       </c>
@@ -11291,20 +11299,20 @@
         <v>565</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F23" s="1"/>
     </row>
   </sheetData>
